--- a/Base.xlsx
+++ b/Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LK\Desktop\GItHubUpload\EVALUATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204EE883-4E8C-45BE-9CC8-6306DB16440A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06606CE9-2110-4762-A97C-53BEC09FDD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="Liste" sheetId="3" r:id="rId3"/>
     <sheet name="Classification" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Classification!$A$1:$C$108</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="300">
   <si>
     <t>Classe</t>
   </si>
@@ -812,13 +815,130 @@
   </si>
   <si>
     <t>Excel avancé</t>
+  </si>
+  <si>
+    <t>MDSMS1</t>
+  </si>
+  <si>
+    <t>Prévision extrapolative avec un modèle univarié</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prévision explicative avec un modèle univarié </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prévision explicative avec un modèle multivarié </t>
+  </si>
+  <si>
+    <t>Web mining / Text mining</t>
+  </si>
+  <si>
+    <t>Data mining</t>
+  </si>
+  <si>
+    <t>Visualisation des données</t>
+  </si>
+  <si>
+    <t>Data Science sous Python et R</t>
+  </si>
+  <si>
+    <t>Communication des résultats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melatagia Yonta Paulin </t>
+  </si>
+  <si>
+    <t>Bobda Jean Christophe</t>
+  </si>
+  <si>
+    <t>Mvondo Mezang Christophe Ivan Patrick</t>
+  </si>
+  <si>
+    <t>Wansouwe Wanbitching</t>
+  </si>
+  <si>
+    <t>Abanda Ambroise</t>
+  </si>
+  <si>
+    <t>Data science applications marketing</t>
+  </si>
+  <si>
+    <t>Statistiques Spatiales et Systèmes d'Information Géographique (SIG)</t>
+  </si>
+  <si>
+    <t>Tagne Takam Cyrille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion quantitative de risque en finance </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microéconométrie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesure de la pauvreté </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Techniques économétrique de l'évaluation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesure et analyse de la pauvreté multidimensionnelle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantobaye  Moudigbaye/Kamdem Briand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niekou Ndjonkam Rosalie </t>
+  </si>
+  <si>
+    <t>Kamdem Briand</t>
+  </si>
+  <si>
+    <t>Croissance inclusive et transformations structurelles</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pauvreté, inégalités et genre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pauvreté et innovations tehcnologiques </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pauvreté et environnement </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mimboe Noah Bernard </t>
+  </si>
+  <si>
+    <t>Ntsame Mbouh Catherine Carole Solange Epse Minkoua</t>
+  </si>
+  <si>
+    <t>Fomo Marie Antoinette</t>
+  </si>
+  <si>
+    <t>Planification et suivi des programmes de développement</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Politiques de lutte contre la pauvreté </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Techniques et méthode d'évaluation des politiques publiques </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguetse Tegoum Pierre Joubert </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,6 +995,25 @@
       <name val="Garamond"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -908,7 +1047,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1061,11 +1200,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,9 +1300,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1127,24 +1307,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1152,47 +1319,134 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1568,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2639,10 +2893,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,664 +3192,912 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="29" t="s">
+      <c r="A27" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="88" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B46" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C46" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="30" t="s">
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="24" t="s">
+    <row r="48" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="21" t="s">
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C49" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="31" t="s">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B50" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C50" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="31" t="s">
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="32" t="s">
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B52" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C52" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="21" t="s">
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B53" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="31" t="s">
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B54" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C54" s="84" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="34" t="s">
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C55" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="32" t="s">
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C56" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="54" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="54" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="76" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="78" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C63" s="56" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C64" s="75" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="C65" s="55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C66" s="55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C67" s="58" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B70" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B80" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" s="79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="C82" s="79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="C83" s="79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" s="86" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="C87" s="80" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" s="80" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" s="52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B92" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C92" s="87" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
+    <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B93" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C93" s="83" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
+    <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B94" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C94" s="82" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+    <row r="95" spans="1:3" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B95" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C95" s="81" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
+    <row r="96" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A96" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B96" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C96" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
+    <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B97" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C97" s="36" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
+    <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B98" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C98" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="36" t="s">
+    <row r="99" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B99" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C99" s="38" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
+    <row r="100" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B100" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C100" s="38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="s">
+    <row r="101" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B101" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C101" s="38" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="36" t="s">
+    <row r="102" spans="1:3" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B102" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C102" s="37" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
+    <row r="103" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B103" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C103" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="36" t="s">
+    <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A104" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B104" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C104" s="38" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="36" t="s">
+    <row r="105" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B105" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C105" s="32" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
+    <row r="106" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B106" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C106" s="37" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="36" t="s">
+    <row r="107" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A107" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B107" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C107" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="36" t="s">
+    <row r="108" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A108" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B108" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="35"/>
-    </row>
-    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B74" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="C74" s="58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" s="60" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C76" s="58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C84" s="61" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C85" s="61" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" s="61" t="s">
-        <v>111</v>
-      </c>
+      <c r="C108" s="32"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C108" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C108">
+      <sortCondition ref="A1:A108"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Base.xlsx
+++ b/Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LK\Desktop\GItHubUpload\EVALUATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06606CE9-2110-4762-A97C-53BEC09FDD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8BEED7-C2F0-4CFD-91DD-D3AF47C59253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
@@ -1731,7 +1731,7 @@
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2895,7 +2895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
